--- a/sa/output.xlsx
+++ b/sa/output.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>선생에게 물었다.</t>
+          <t>선생에게</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>“‘사물에 이른다.［격물(格物)］’</t>
+          <t>물었다.</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>라는 것은 외물(外物)에 이르는 것입니까?</t>
+          <t>“‘사물에 이른다.［격물(格物)］’ 라는 것은 외물(外物)에 이르는 것입니까?</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>선생이 말하였다.</t>
+          <t>선생이</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>“모두 구애받지 않는다.</t>
+          <t>말하였다. “모두 구애받지 않는다.</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>뜨거운 이유와</t>
+          <t>뜨거운</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>물이 차가운</t>
+          <t>이유와</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>이유부터 군신(君臣)과 부자(父子)의 관계에 이르기까지 모두 이러한 이치가 있다.”</t>
+          <t>물이 차가운 이유부터 군신(君臣)과 부자(父子)의 관계에 이르기까지 모두 이러한 이치가 있다.”</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>또 물었다.</t>
+          <t>또</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>“하나의 물(物)을</t>
+          <t>물었다.</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>궁구하여 이</t>
+          <t>“하나의</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>하나의 물(物)의 이치를 보기만 하면 바로 여러 물(物)의 이치를 알 수 있습니까?”</t>
+          <t>물(物)을 궁구하여 이 하나의 물(物)의 이치를 보기만 하면 바로 여러 물(物)의 이치를 알 수 있습니까?”</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>선생이 말하였다.</t>
+          <t>선생이</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>“모름지기</t>
+          <t>말하였다.</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>여러 물(物)의</t>
+          <t>“모름지기</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>이치를 두루 구해야 하니, 안자(顔子) 같은 분도 하나를 듣고 열을 알 수 있었을 뿐이다.</t>
+          <t>여러 물(物)의 이치를 두루 구해야 하니, 안자(顔子) 같은 분도 하나를 듣고 열을 알 수 있었을 뿐이다.</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>만약 훗날</t>
+          <t>만약</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>이치를</t>
+          <t>훗날</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>통달하게 되면 억만 가지 이치라도 통달할 수 있다.”</t>
+          <t>이치를 통달하게 되면 억만 가지 이치라도 통달할 수 있다.”</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>또 물었다.</t>
+          <t>또</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>“예컨대 형공(荊公)(왕안석(王安石))이</t>
+          <t>물었다.</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>물(物)을 궁구한</t>
+          <t>“예컨대</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>것은 ≪자해(字解)≫ 한 부인데, 대부분 오행(五行)에서 추론하여 지어낸 것입니다.</t>
+          <t>형공(荊公)(왕안석(王安石))이 물(物)을 궁구한 것은 ≪자해(字解)≫ 한 부인데, 대부분 오행(五行)에서 추론하여 지어낸 것입니다.</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>지금 이치를</t>
+          <t>지금</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>궁구하는 일도</t>
+          <t>이치를</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>그저 이와 같이 공부할 뿐이니 이는 어떻습니까?”</t>
+          <t>궁구하는 일도 그저 이와 같이 공부할 뿐이니 이는 어떻습니까?”</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>선생이 말하였다.</t>
+          <t>선생이</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>“형공이 예전에</t>
+          <t>말하였다.</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>한 말은</t>
+          <t>“형공이</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>확실히 깨달은</t>
+          <t>예전에</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>것이었는데,</t>
+          <t>한</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>나중에는</t>
+          <t>말은</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>도리어 스스로 옳지 않다고 여겼고, 만년에 하는 말은 모두 지리하였다.”</t>
+          <t>확실히 깨달은 것이었는데, 나중에는 도리어 스스로 옳지 않다고 여겼고, 만년에 하는 말은 모두 지리하였다.”</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>“‘옛날의 배우는</t>
+          <t>“‘옛날의</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>자들은 자기를</t>
+          <t>배우는</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>위한</t>
+          <t>자들은</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>실질적인</t>
+          <t>자기를</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>학문을 하였다.’ 라고 하였는데, 모르겠습니다만 처음 마음을 먹을 적에 자기를 위한 학문을 해야 합니까?</t>
+          <t>위한 실질적인 학문을 하였다.’ 라고 하였는데, 모르겠습니다만 처음 마음을 먹을 적에 자기를 위한 학문을 해야 합니까?</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>“우선 자기를</t>
+          <t>“우선</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>위한 학문을 해야 남에게 미칠 수 있다.</t>
+          <t>자기를 위한 학문을 해야 남에게 미칠 수 있다.</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>처음 배우는</t>
+          <t>처음 배우는 자는</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>자는 단지 자기를 위한 학문을 할 뿐이다.</t>
+          <t>단지 자기를 위한 학문을 할 뿐이다.</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>‘배우는 자는</t>
+          <t>‘배우는</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>먼저</t>
+          <t>자는</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>인(仁)을 구해야</t>
+          <t>먼저</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>한다.’</t>
+          <t>인(仁)을</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>라고 하였는데, 인(仁)은 남을 사랑하는 것이니, 이 말은 그야말로 전도된 설이다.”</t>
+          <t>구해야 한다.’ 라고 하였는데, 인(仁)은 남을 사랑하는 것이니, 이 말은 그야말로 전도된 설이다.”</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>“백성을 새롭게</t>
+          <t>“백성을</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>한다.”</t>
+          <t>새롭게</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>라는 것은 명덕(明德)으로 백성을 새롭게 하는 것이다.</t>
+          <t>한다.” 라는 것은 명덕(明德)으로 백성을 새롭게 하는 것이다.</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>선생에게 물었다.</t>
+          <t>선생에게 물었다. “‘날마다</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>“‘날마다 새롭게</t>
+          <t>새롭게</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>선생이 말하였다.</t>
+          <t>선생이</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>“진보함이 있다는 뜻이다.</t>
+          <t>말하였다. “진보함이 있다는 뜻이다.</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>유익함이 있기를</t>
+          <t>유익함이</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>구한다면 모름지기 날마다 자신을 새롭게 해야 한다.”</t>
+          <t>있기를 구한다면 모름지기 날마다 자신을 새롭게 해야 한다.”</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>선생에게 물었다.</t>
+          <t>선생에게</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>“‘마음에 성내는 바, 두려워하는</t>
+          <t>물었다.</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>바, 걱정하는</t>
+          <t>“‘마음에</t>
         </is>
       </c>
     </row>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>바가 있으면</t>
+          <t>성내는</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>마음이 그 바름을 얻지 못한다.’ 라고 하였는데, 이 몇 가지 감정을 없애면 마음이 바르게 됩니까?”</t>
+          <t>바, 두려워하는 바, 걱정하는 바가 있으면 마음이 그 바름을 얻지 못한다.’ 라고 하였는데, 이 몇 가지 감정을 없애면 마음이 바르게 됩니까?”</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>선생이 말하였다.</t>
+          <t>선생이</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>“이는 이런 감정을 없애야 한다고 말하는 것이 아니다.</t>
+          <t>말하였다. “이는 이런 감정을 없애야 한다고 말하는 것이 아니다.</t>
         </is>
       </c>
     </row>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>“군대를 출동하되</t>
+          <t>“군대를</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>규율에</t>
+          <t>출동하되</t>
         </is>
       </c>
     </row>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>맞게</t>
+          <t>규율에</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>해야</t>
+          <t>맞게</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>하니, 그렇지 않으면 승리하더라도 흉하리라.” 라고 하였는데, 규율에는 두 가지 의미가 있다.</t>
+          <t>해야 하니, 그렇지 않으면 승리하더라도 흉하리라.” 라고 하였는데, 규율에는 두 가지 의미가 있다.</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>출동할 적에</t>
+          <t>출동할</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>의(義)로써 하지 않는 경우가 있고, 군대를 움직이면서 호령과 절제가 없는 경우가 있으니, 모두 규율을 잃은 것이다.</t>
+          <t>적에 의(義)로써 하지 않는 경우가 있고, 군대를 움직이면서 호령과 절제가 없는 경우가 있으니, 모두 규율을 잃은 것이다.</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>군대를 출동할</t>
+          <t>군대를</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>적에는 마땅히 규율에 맞게 해야 하니,</t>
+          <t>출동할</t>
         </is>
       </c>
     </row>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>그렇지 않으면</t>
+          <t>적에는</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>비록 승리하더라도</t>
+          <t>마땅히</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>흉한 것이다.</t>
+          <t>규율에 맞게 해야 하니, 그렇지 않으면 비록 승리하더라도 흉한 것이다.</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>요즘 사람들이</t>
+          <t>요즘</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>군대를 운용하는 것은 오직 이기고자 할 따름이다.</t>
+          <t>사람들이 군대를 운용하는 것은 오직 이기고자 할 따름이다.</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>“자제(子弟)들이 여럿이</t>
+          <t>“자제(子弟)들이</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>주장하면 하는</t>
+          <t>여럿이</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>일이 바르더라도 흉하리라.” 라고 하였다.</t>
+          <t>주장하면 하는 일이 바르더라도 흉하리라.” 라고 하였다.</t>
         </is>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>장자(長子)가 군대를</t>
+          <t>장자(長子)가</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>거느렸는데 지금</t>
+          <t>군대를</t>
         </is>
       </c>
     </row>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>자제들이 여럿이 그 일을 주장한다면 또한 이는 규율을 잃은 것이다.</t>
+          <t>거느렸는데 지금 자제들이 여럿이 그 일을 주장한다면 또한 이는 규율을 잃은 것이다.</t>
         </is>
       </c>
     </row>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>그러므로 하는</t>
+          <t>그러므로</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>일이 바르더라도</t>
+          <t>하는</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>흉한 것이다.</t>
+          <t>일이 바르더라도 흉한 것이다.</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>“멧돼지를 거세하여</t>
+          <t>“멧돼지를</t>
         </is>
       </c>
     </row>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>이빨을</t>
+          <t>거세하여</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>쓰지 못하게</t>
+          <t>이빨을</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>한다.” 라고</t>
+          <t>쓰지</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>하였으니, 멧돼지의 이빨은 사람을 매우 잘 깨물어 해치지만, 단지 그 이빨만을 다스려서 어떻게 멧돼지를 제압할 수 있겠는가?</t>
+          <t>못하게 한다.” 라고 하였으니, 멧돼지의 이빨은 사람을 매우 잘 깨물어 해치지만, 단지 그 이빨만을 다스려서 어떻게 멧돼지를 제압할 수 있겠는가?</t>
         </is>
       </c>
     </row>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>요즘 사람들이</t>
+          <t>요즘</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>악(惡)을 행할</t>
+          <t>사람들이</t>
         </is>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>적에 단지 그의 악행만을 금지시키면 근원적인 악을 금지할 길이 없다.</t>
+          <t>악(惡)을 행할 적에 단지 그의 악행만을 금지시키면 근원적인 악을 금지할 길이 없다.</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>여러 양(陽)이</t>
+          <t>여러</t>
         </is>
       </c>
     </row>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>함께</t>
+          <t>양(陽)이</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>나아가는 형상인데,</t>
+          <t>함께</t>
         </is>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>육오효(六五爻)가 음(陰)으로서</t>
+          <t>나아가는</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>임금 자리에 거처하니 오직 화이(和易)한 뒤에 양을 잃을 수 있다.</t>
+          <t>형상인데, 육오효(六五爻)가 음(陰)으로서 임금 자리에 거처하니 오직 화이(和易)한 뒤에 양을 잃을 수 있다.</t>
         </is>
       </c>
     </row>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>난이(難易)의 이(易)가</t>
+          <t>난이(難易)의</t>
         </is>
       </c>
     </row>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>아니라, 화이(和易)․낙이(樂易)의 이(易)이다.</t>
+          <t>이(易)가 아니라, 화이(和易)․낙이(樂易)의 이(易)이다.</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>1백여 개의</t>
+          <t>1백여</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>학파가 있어 그 설을 두루 살펴보기가 어렵다.</t>
+          <t>개의 학파가 있어 그 설을 두루 살펴보기가 어렵다.</t>
         </is>
       </c>
     </row>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>만약 평소</t>
+          <t>만약</t>
         </is>
       </c>
     </row>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>≪주역≫을 읽지 않으면 글의 의미를 깨닫지 못한다.</t>
+          <t>평소 ≪주역≫을 읽지 않으면 글의 의미를 깨닫지 못한다.</t>
         </is>
       </c>
     </row>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>또 반드시 왕필(王弼)․호선생(胡先生)(호원(胡瑗))․형공(荊公)(왕안석(王安石)) 삼가(三家)의 설을 보고서 글의</t>
+          <t>또</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>의미를 이해하고,</t>
+          <t>반드시</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>또 숙독을</t>
+          <t>왕필(王弼)․호선생(胡先生)(호원(胡瑗))․형공(荊公)(왕안석(王安石))</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>한 뒤에야</t>
+          <t>삼가(三家)의</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>마음을 쓸 곳이 있게 된다.</t>
+          <t>설을 보고서 글의 의미를 이해하고, 또 숙독을 한 뒤에야 마음을 쓸 곳이 있게 된다.</t>
         </is>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>≪주역(周易)≫을 읽을</t>
+          <t>≪주역(周易)≫을</t>
         </is>
       </c>
     </row>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>적에는 모름지기 괘(卦)의 체(體)를 먼저 알아야 한다.</t>
+          <t>읽을 적에는 모름지기 괘(卦)의 체(體)를 먼저 알아야 한다.</t>
         </is>
       </c>
     </row>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>건괘(乾卦)는 원(元)․형(亨)․이(利)․정(貞)</t>
+          <t>건괘(乾卦)는</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>네 가지</t>
+          <t>원(元)․형(亨)․이(利)․정(貞)</t>
         </is>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>덕(德)이</t>
+          <t>네</t>
         </is>
       </c>
     </row>
@@ -4691,7 +4691,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>있는데, 이 중에 하나라도 없으면 건괘(乾卦)가 아니니, 모름지기 이 점을 잘 알아야 한다.</t>
+          <t>가지 덕(德)이 있는데, 이 중에 하나라도 없으면 건괘(乾卦)가 아니니, 모름지기 이 점을 잘 알아야 한다.</t>
         </is>
       </c>
     </row>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>“반복하기를 도(道)로써</t>
+          <t>“반복하기를</t>
         </is>
       </c>
     </row>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>한다.” 라는</t>
+          <t>도(道)로써</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>것은 종일토록 힘쓰고 반복하는 것이 모두 도를 말미암는다는 말이다.</t>
+          <t>한다.” 라는 것은 종일토록 힘쓰고 반복하는 것이 모두 도를 말미암는다는 말이다.</t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>외괘(外卦))의 가운데에</t>
+          <t>외괘(外卦))의</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>있어 나아가 올라갈 수도 있고, 물러나 내려갈 수도 있다.</t>
+          <t>가운데에 있어 나아가 올라갈 수도 있고, 물러나 내려갈 수도 있다.</t>
         </is>
       </c>
     </row>
@@ -4931,7 +4931,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>반복한다고 말한</t>
+          <t>반복한다고</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>것이다. “이를</t>
+          <t>말한</t>
         </is>
       </c>
     </row>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>곳을 알아</t>
+          <t>것이다.</t>
         </is>
       </c>
     </row>
@@ -5021,7 +5021,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>그곳에 이른다.”</t>
+          <t>“이를</t>
         </is>
       </c>
     </row>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>라는 것은 지금 배우는 자가 이를 곳이 있는 것을 먼저 알게 되면 이로부터 그곳에 이르는 것과 같으니, 이것이 “더불어 기미를 알 수 있다.” 라는 것이다.</t>
+          <t>곳을 알아 그곳에 이른다.” 라는 것은 지금 배우는 자가 이를 곳이 있는 것을 먼저 알게 되면 이로부터 그곳에 이르는 것과 같으니, 이것이 “더불어 기미를 알 수 있다.” 라는 것이다.</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>아는 자가</t>
+          <t>아는</t>
         </is>
       </c>
     </row>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>아니라면 어찌</t>
+          <t>자가</t>
         </is>
       </c>
     </row>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>이를 곳을</t>
+          <t>아니라면</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>먼저</t>
+          <t>어찌</t>
         </is>
       </c>
     </row>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>알 수 있겠는가? “마칠 바를 알아 그것을 마친다.” 라는 것은 배움이 마치는 곳을 알아 그것을 마치는 것이니, 그러한 뒤에 더불어 의(義)를 지킬 수 있다.</t>
+          <t>이를 곳을 먼저 알 수 있겠는가? “마칠 바를 알아 그것을 마친다.” 라는 것은 배움이 마치는 곳을 알아 그것을 마치는 것이니, 그러한 뒤에 더불어 의(義)를 지킬 수 있다.</t>
         </is>
       </c>
     </row>
@@ -5321,7 +5321,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>“구삼효(九三爻)는 구오효(九五爻)의</t>
+          <t>“구삼효(九三爻)는</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>지위가 이를</t>
+          <t>구오효(九五爻)의</t>
         </is>
       </c>
     </row>
@@ -5381,7 +5381,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>만한 것임을 알아 거기에 이른다.” 라고 하였는데, 이런 해석은 대단히 일을 그르친다.</t>
+          <t>지위가 이를 만한 것임을 알아 거기에 이른다.” 라고 하였는데, 이런 해석은 대단히 일을 그르친다.</t>
         </is>
       </c>
     </row>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>항상 이러한</t>
+          <t>항상</t>
         </is>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>마음을</t>
+          <t>이러한</t>
         </is>
       </c>
     </row>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>품으면</t>
+          <t>마음을</t>
         </is>
       </c>
     </row>
@@ -5531,7 +5531,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>이는</t>
+          <t>품으면</t>
         </is>
       </c>
     </row>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>세상을 크게 어지럽히는 도(道)이고, 또한 탕(湯)․무(武)를 알지 못하는 것이다. “이를 바를 알아 그곳에 이른다.” 라는 것은 단지 그 도에 이르는 것일 뿐이다.</t>
+          <t>이는 세상을 크게 어지럽히는 도(道)이고, 또한 탕(湯)․무(武)를 알지 못하는 것이다. “이를 바를 알아 그곳에 이른다.” 라는 것은 단지 그 도에 이르는 것일 뿐이다.</t>
         </is>
       </c>
     </row>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>여섯 효가</t>
+          <t>여섯</t>
         </is>
       </c>
     </row>
@@ -5771,7 +5771,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>모두 구(九)를 쓴다.</t>
+          <t>효가 모두 구(九)를 쓴다.</t>
         </is>
       </c>
     </row>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>“여러</t>
+          <t>“여러 용(龍)을</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>용(龍)을 보되</t>
+          <t>보되</t>
         </is>
       </c>
     </row>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>강건함을 행하는</t>
+          <t>강건함을</t>
         </is>
       </c>
     </row>
@@ -6101,7 +6101,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>것이다. “용구(用九)는 천덕(天德)은 우두머리가 되어서는 안 된다는 것이다.” 라는 것은 ‘건(乾)은 지극히 강건하니, 또한 어찌 다시 남보다 앞장설 수 있겠는가?’ 라는 말이다.</t>
+          <t>행하는 것이다. “용구(用九)는 천덕(天德)은 우두머리가 되어서는 안 된다는 것이다.” 라는 것은 ‘건(乾)은 지극히 강건하니, 또한 어찌 다시 남보다 앞장설 수 있겠는가?’ 라는 말이다.</t>
         </is>
       </c>
     </row>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>남보다 앞장서면</t>
+          <t>남보다</t>
         </is>
       </c>
     </row>
@@ -6161,7 +6161,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>화(禍)가 있으니,</t>
+          <t>앞장서면</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>이른바 “감히 천하 사람보다 앞장서지 않는다.” 라는 것이다.</t>
+          <t>화(禍)가 있으니, 이른바 “감히 천하 사람보다 앞장서지 않는다.” 라는 것이다.</t>
         </is>
       </c>
     </row>
@@ -6221,7 +6221,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>건(乾)은 때에</t>
+          <t>건(乾)은</t>
         </is>
       </c>
     </row>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>순응하여 움직이니,</t>
+          <t>때에</t>
         </is>
       </c>
     </row>
@@ -6281,7 +6281,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>지나치지 않는 것이 곧 우두머리가 되지 않는 것이다.</t>
+          <t>순응하여 움직이니, 지나치지 않는 것이 곧 우두머리가 되지 않는 것이다.</t>
         </is>
       </c>
     </row>
@@ -6371,7 +6371,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>물었다. “호선생(胡先生)(호원(胡瑗))은</t>
+          <t>물었다.</t>
         </is>
       </c>
     </row>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>건괘(乾卦) 구사효(九四爻)를</t>
+          <t>“호선생(胡先生)(호원(胡瑗))은</t>
         </is>
       </c>
     </row>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>태자(太子)로 풀이하였는데,</t>
+          <t>건괘(乾卦)</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>이는 괘(卦)의 뜻이 아닌 듯합니다.”</t>
+          <t>구사효(九四爻)를 태자(太子)로 풀이하였는데, 이는 괘(卦)의 뜻이 아닌 듯합니다.”</t>
         </is>
       </c>
     </row>
@@ -6521,7 +6521,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>말하였다. “그</t>
+          <t>말하였다.</t>
         </is>
       </c>
     </row>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>또한 무방하니,</t>
+          <t>“그 또한 무방하니,</t>
         </is>
       </c>
     </row>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>태자로 보는</t>
+          <t>태자로</t>
         </is>
       </c>
     </row>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>것이 합당하면 태자로 보는 것이다.</t>
+          <t>보는 것이 합당하면 태자로 보는 것이다.</t>
         </is>
       </c>
     </row>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>만약 구사효(九四爻)가 임금에</t>
+          <t>만약 구사효(九四爻)가</t>
         </is>
       </c>
     </row>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>가까우면 태자로</t>
+          <t>임금에</t>
         </is>
       </c>
     </row>
@@ -6731,7 +6731,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>보더라도 무방하다.</t>
+          <t>가까우면 태자로 보더라도 무방하다.</t>
         </is>
       </c>
     </row>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>한 가지에</t>
+          <t>한</t>
         </is>
       </c>
     </row>
@@ -6821,7 +6821,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>구애되어서는</t>
+          <t>가지에</t>
         </is>
       </c>
     </row>
@@ -6851,7 +6851,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>안 되니, 만약 한 가지 일만 고집한다면 384효(爻)가 단지 384건의 일이 되는 데에서 그칠 뿐이다.”</t>
+          <t>구애되어서는 안 되니, 만약 한 가지 일만 고집한다면 384효(爻)가 단지 384건의 일이 되는 데에서 그칠 뿐이다.”</t>
         </is>
       </c>
     </row>
@@ -6941,7 +6941,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>무릇 한 괘(卦)의 여섯 효(爻)는</t>
+          <t>무릇</t>
         </is>
       </c>
     </row>
@@ -6971,7 +6971,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>사람마다 용도가 따로 있다.</t>
+          <t>한 괘(卦)의 여섯 효(爻)는 사람마다 용도가 따로 있다.</t>
         </is>
       </c>
     </row>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>성인(聖人)에게는 성인의</t>
+          <t>성인(聖人)에게는</t>
         </is>
       </c>
     </row>
@@ -7031,7 +7031,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>용도가 있고,</t>
+          <t>성인의</t>
         </is>
       </c>
     </row>
@@ -7061,7 +7061,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>현인(賢人)에게는 현인의</t>
+          <t>용도가</t>
         </is>
       </c>
     </row>
@@ -7091,7 +7091,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>용도가 있다.</t>
+          <t>있고, 현인(賢人)에게는 현인의 용도가 있다.</t>
         </is>
       </c>
     </row>
@@ -7121,7 +7121,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>일반인에게는 일반인의</t>
+          <t>일반인에게는</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>용도가 있고,</t>
+          <t>일반인의 용도가 있고,</t>
         </is>
       </c>
     </row>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>용도가 있고,</t>
+          <t>용도가</t>
         </is>
       </c>
     </row>
@@ -7301,7 +7301,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>신하에게는 신하의 용도가 있어 통하지 않는 바가 없다.”</t>
+          <t>있고, 신하에게는 신하의 용도가 있어 통하지 않는 바가 없다.”</t>
         </is>
       </c>
     </row>
@@ -7331,7 +7331,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>인하여 선생에게</t>
+          <t>인하여</t>
         </is>
       </c>
     </row>
@@ -7361,7 +7361,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>물었다. “곤괘(坤卦)는</t>
+          <t>선생에게</t>
         </is>
       </c>
     </row>
@@ -7391,7 +7391,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>신하의 일이니,</t>
+          <t>물었다.</t>
         </is>
       </c>
     </row>
@@ -7421,7 +7421,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>임금이</t>
+          <t>“곤괘(坤卦)는</t>
         </is>
       </c>
     </row>
@@ -7451,7 +7451,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>쓸 곳이 있겠습니까?”</t>
+          <t>신하의 일이니, 임금이 쓸 곳이 있겠습니까?”</t>
         </is>
       </c>
     </row>
@@ -7481,7 +7481,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>선생이 말하였다.</t>
+          <t>선생이</t>
         </is>
       </c>
     </row>
@@ -7511,7 +7511,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>“어찌 쓸 곳이 없겠는가?</t>
+          <t>말하였다. “어찌 쓸 곳이 없겠는가?</t>
         </is>
       </c>
     </row>
@@ -7541,7 +7541,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>예컨대 ‘두터운</t>
+          <t>예컨대</t>
         </is>
       </c>
     </row>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>덕으로 만물을</t>
+          <t>‘두터운</t>
         </is>
       </c>
     </row>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>실어준다.’ 라는 것을 임금이 어찌 쓰지 않을 수 있겠는가?”</t>
+          <t>덕으로 만물을 실어준다.’ 라는 것을 임금이 어찌 쓰지 않을 수 있겠는가?”</t>
         </is>
       </c>
     </row>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>음(陰)은 소인(小人)이고</t>
+          <t>음(陰)은</t>
         </is>
       </c>
     </row>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>이(利)는 불선(不善)이나,</t>
+          <t>소인(小人)이고</t>
         </is>
       </c>
     </row>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>일률적으로 논해서는 안 된다.</t>
+          <t>이(利)는 불선(不善)이나, 일률적으로 논해서는 안 된다.</t>
         </is>
       </c>
     </row>
@@ -7721,7 +7721,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>음(陰)이 양(陽)을</t>
+          <t>음(陰)이</t>
         </is>
       </c>
     </row>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>도와 만물을</t>
+          <t>양(陽)을</t>
         </is>
       </c>
     </row>
@@ -7781,7 +7781,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>이루는</t>
+          <t>도와</t>
         </is>
       </c>
     </row>
@@ -7811,7 +7811,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>것이 군자(君子)이고, 음(陰)이 양(陽)을 해치는 것이 소인(小人)이다.</t>
+          <t>만물을 이루는 것이 군자(君子)이고, 음(陰)이 양(陽)을 해치는 것이 소인(小人)이다.</t>
         </is>
       </c>
     </row>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>&lt;선생이 말하였다.&gt; “‘이(利)와</t>
+          <t>&lt;선생이 말하였다.&gt;</t>
         </is>
       </c>
     </row>
@@ -7991,7 +7991,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>정(貞)은 성정(性情)이다.’</t>
+          <t>“‘이(利)와</t>
         </is>
       </c>
     </row>
@@ -8021,7 +8021,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>라는</t>
+          <t>정(貞)은</t>
         </is>
       </c>
     </row>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>것은 이(利)와 정(貞)이 곧 건(乾)의 성정(性情)임을 말한다.”</t>
+          <t>성정(性情)이다.’ 라는 것은 이(利)와 정(貞)이 곧 건(乾)의 성정(性情)임을 말한다.”</t>
         </is>
       </c>
     </row>
@@ -8081,7 +8081,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>인하여</t>
+          <t>인하여 선생에게</t>
         </is>
       </c>
     </row>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>선생에게</t>
+          <t>물었다.</t>
         </is>
       </c>
     </row>
@@ -8141,7 +8141,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>물었다. “이 이(利)와 ‘이(利)를 근본으로 삼는다.’ 라는 말의 이(利)는 같습니까?”</t>
+          <t>“이 이(利)와 ‘이(利)를 근본으로 삼는다.’ 라는 말의 이(利)는 같습니까?”</t>
         </is>
       </c>
     </row>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>하나이지만 쓰임에는</t>
+          <t>하나이지만</t>
         </is>
       </c>
     </row>
@@ -8261,7 +8261,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>같지 않음이 있으니, 어떻게 쓰는지를 볼 뿐이다.</t>
+          <t>쓰임에는 같지 않음이 있으니, 어떻게 쓰는지를 볼 뿐이다.</t>
         </is>
       </c>
     </row>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>무릇 이치에</t>
+          <t>무릇</t>
         </is>
       </c>
     </row>
@@ -8321,7 +8321,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>순응하여</t>
+          <t>이치에</t>
         </is>
       </c>
     </row>
@@ -8351,7 +8351,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>해침이 없는 것이 곧 이(利)이니, 군자(君子)는 일찍이 이(利)를 바라지 않은 적이 없다.</t>
+          <t>순응하여 해침이 없는 것이 곧 이(利)이니, 군자(君子)는 일찍이 이(利)를 바라지 않은 적이 없다.</t>
         </is>
       </c>
     </row>
@@ -8381,7 +8381,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>그러나 맹자(孟子)가</t>
+          <t>그러나</t>
         </is>
       </c>
     </row>
@@ -8411,7 +8411,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>‘하필</t>
+          <t>맹자(孟子)가</t>
         </is>
       </c>
     </row>
@@ -8441,7 +8441,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>이(利)를 말씀하십니까?’ 라고 말한 경우는 대개 이(利)만을 마음에 두면 해로움이 있기 때문이다.</t>
+          <t>‘하필 이(利)를 말씀하십니까?’ 라고 말한 경우는 대개 이(利)만을 마음에 두면 해로움이 있기 때문이다.</t>
         </is>
       </c>
     </row>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>예컨대 ‘윗사람과</t>
+          <t>예컨대</t>
         </is>
       </c>
     </row>
@@ -8501,7 +8501,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>아랫사람이 서로 이(利)를 취한다면 나라가 위태로울 것이다.’ 라는 것은 바로 해로움이 있는 것이다.</t>
+          <t>‘윗사람과 아랫사람이 서로 이(利)를 취한다면 나라가 위태로울 것이다.’ 라는 것은 바로 해로움이 있는 것이다.</t>
         </is>
       </c>
     </row>
@@ -8561,7 +8561,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>자기 어버이를</t>
+          <t>자기</t>
         </is>
       </c>
     </row>
@@ -8591,7 +8591,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>버리는</t>
+          <t>어버이를 버리는</t>
         </is>
       </c>
     </row>
@@ -8681,7 +8681,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>인(仁)과 의(義)는</t>
+          <t>인(仁)과</t>
         </is>
       </c>
     </row>
@@ -8711,7 +8711,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>일찍이 이롭지 않은 적이 없다.”</t>
+          <t>의(義)는 일찍이 이롭지 않은 적이 없다.”</t>
         </is>
       </c>
     </row>
@@ -8771,7 +8771,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>장안(長安)의 조사(漕司)이고</t>
+          <t>장안(長安)의</t>
         </is>
       </c>
     </row>
@@ -8801,7 +8801,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>명도(明道)는 호현(鄠縣)의</t>
+          <t>조사(漕司)이고</t>
         </is>
       </c>
     </row>
@@ -8831,7 +8831,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>주부(主簿)였을 적에</t>
+          <t>명도(明道)는</t>
         </is>
       </c>
     </row>
@@ -8861,7 +8861,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>≪주역(周易)≫과 ≪춘추(春秋)≫를</t>
+          <t>호현(鄠縣)의</t>
         </is>
       </c>
     </row>
@@ -8891,7 +8891,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>논하였는데, 명도가</t>
+          <t>주부(主簿)였을</t>
         </is>
       </c>
     </row>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>말하기를</t>
+          <t>적에</t>
         </is>
       </c>
     </row>
@@ -8951,7 +8951,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>“전운사(轉運使)께서는</t>
+          <t>≪주역(周易)≫과</t>
         </is>
       </c>
     </row>
@@ -8981,7 +8981,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>≪춘추≫에는</t>
+          <t>≪춘추(春秋)≫를</t>
         </is>
       </c>
     </row>
@@ -9011,7 +9011,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>오히려 장점이</t>
+          <t>논하였는데,</t>
         </is>
       </c>
     </row>
@@ -9041,7 +9041,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>있으나, ≪주역≫은</t>
+          <t>명도가</t>
         </is>
       </c>
     </row>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>전혀 이해를 못하십니다.” 라고 하였다.</t>
+          <t>말하기를 “전운사(轉運使)께서는 ≪춘추≫에는 오히려 장점이 있으나, ≪주역≫은 전혀 이해를 못하십니다.” 라고 하였다.</t>
         </is>
       </c>
     </row>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>사직(師直)이 어느</t>
+          <t>사직(師直)이</t>
         </is>
       </c>
     </row>
@@ -9131,7 +9131,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>날 선생에게 그 말을</t>
+          <t>어느 날</t>
         </is>
       </c>
     </row>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>하자, 선생이</t>
+          <t>선생에게</t>
         </is>
       </c>
     </row>
@@ -9191,7 +9191,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>답하였다.</t>
+          <t>그</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>“제가 보기로는</t>
+          <t>말을</t>
         </is>
       </c>
     </row>
@@ -9251,7 +9251,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>두 분 모두 ≪주역≫을 깊이 아는 분입니다.”</t>
+          <t>하자, 선생이 답하였다. “제가 보기로는 두 분 모두 ≪주역≫을 깊이 아는 분입니다.”</t>
         </is>
       </c>
     </row>
@@ -9341,7 +9341,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>선생이 말하였다.</t>
+          <t>선생이</t>
         </is>
       </c>
     </row>
@@ -9371,7 +9371,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>“전운사로서 능히</t>
+          <t>말하였다.</t>
         </is>
       </c>
     </row>
@@ -9401,7 +9401,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>절조를 굽혀</t>
+          <t>“전운사로서</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>일개 주부에게</t>
+          <t>능히</t>
         </is>
       </c>
     </row>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>물었으며, 일개 주부로서 전운사에게 ≪주역≫을 알지 못한다고 감히 말하였으니, ≪주역≫의 도를 깊이 아는 사람이 아니라면 그렇게 할 수 없습니다.”</t>
+          <t>절조를 굽혀 일개 주부에게 물었으며, 일개 주부로서 전운사에게 ≪주역≫을 알지 못한다고 감히 말하였으니, ≪주역≫의 도를 깊이 아는 사람이 아니라면 그렇게 할 수 없습니다.”</t>
         </is>
       </c>
     </row>
@@ -9491,7 +9491,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>“구름이 가고</t>
+          <t>“구름이</t>
         </is>
       </c>
     </row>
@@ -9521,7 +9521,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>비가 내린다.” 라는 것은 건(乾)이 형통한 것이다.</t>
+          <t>가고 비가 내린다.” 라는 것은 건(乾)이 형통한 것이다.</t>
         </is>
       </c>
     </row>
@@ -9551,7 +9551,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>건괘(乾卦)의 여섯</t>
+          <t>건괘(乾卦)의</t>
         </is>
       </c>
     </row>
@@ -9581,7 +9581,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>효(爻)에서</t>
+          <t>여섯</t>
         </is>
       </c>
     </row>
@@ -9611,7 +9611,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>만일 성인(聖人)이 일찍이 실천한 점을 보고자 한다면 마땅히 순(舜)임금의 일에서 볼 수 있다.</t>
+          <t>효(爻)에서 만일 성인(聖人)이 일찍이 실천한 점을 보고자 한다면 마땅히 순(舜)임금의 일에서 볼 수 있다.</t>
         </is>
       </c>
     </row>
@@ -9641,7 +9641,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>순임금이 미천한</t>
+          <t>순임금이</t>
         </is>
       </c>
     </row>
@@ -9671,7 +9671,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>지위에 있었던</t>
+          <t>미천한</t>
         </is>
       </c>
     </row>
@@ -9701,7 +9701,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>것이 곧</t>
+          <t>지위에</t>
         </is>
       </c>
     </row>
@@ -9731,7 +9731,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>‘잠(潛)’ 이고,</t>
+          <t>있었던</t>
         </is>
       </c>
     </row>
@@ -9761,7 +9761,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>질그릇을 굽고</t>
+          <t>것이</t>
         </is>
       </c>
     </row>
@@ -9791,7 +9791,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>물고기를 잡았을</t>
+          <t>곧</t>
         </is>
       </c>
     </row>
@@ -9821,7 +9821,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>때가</t>
+          <t>‘잠(潛)’</t>
         </is>
       </c>
     </row>
@@ -9851,7 +9851,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>곧 ‘견(見)’ 이고, 그윽한 덕이 위로 올라가 알려진 때가 곧 ‘건건(乾乾)’ 이고, 대록(大麓)에 들어갔을 때가 곧 ‘약(躍)’이다.</t>
+          <t>이고, 질그릇을 굽고 물고기를 잡았을 때가 곧 ‘견(見)’ 이고, 그윽한 덕이 위로 올라가 알려진 때가 곧 ‘건건(乾乾)’ 이고, 대록(大麓)에 들어갔을 때가 곧 ‘약(躍)’이다.</t>
         </is>
       </c>
     </row>
@@ -9881,7 +9881,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>개보(介甫)(왕안석(王安石))는 무왕(武王)이</t>
+          <t>개보(介甫)(왕안석(王安石))는</t>
         </is>
       </c>
     </row>
@@ -9911,7 +9911,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>군대를 사열한</t>
+          <t>무왕(武王)이 군대를</t>
         </is>
       </c>
     </row>
@@ -9941,7 +9941,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>것을</t>
+          <t>사열한</t>
         </is>
       </c>
     </row>
@@ -9971,7 +9971,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>건괘(乾卦) 구사효(九四爻)의 의미로 여겼으니, 이는 대단히 의리가 없다.</t>
+          <t>것을 건괘(乾卦) 구사효(九四爻)의 의미로 여겼으니, 이는 대단히 의리가 없다.</t>
         </is>
       </c>
     </row>
@@ -10181,7 +10181,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>천명(天命)이 아직</t>
+          <t>천명(天命)이</t>
         </is>
       </c>
     </row>
@@ -10211,7 +10211,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>끊어지지 않았다면</t>
+          <t>아직</t>
         </is>
       </c>
     </row>
@@ -10241,7 +10241,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>아직 임금이니, 신하된 자가 어찌 군대를 이끌고 자기 임금을 협박할 수 있겠는가.</t>
+          <t>끊어지지 않았다면 아직 임금이니, 신하된 자가 어찌 군대를 이끌고 자기 임금을 협박할 수 있겠는가.</t>
         </is>
       </c>
     </row>
@@ -10301,7 +10301,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>또 주(紂)는</t>
+          <t>또</t>
         </is>
       </c>
     </row>
@@ -10331,7 +10331,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>사나움이 이와</t>
+          <t>주(紂)는</t>
         </is>
       </c>
     </row>
@@ -10361,7 +10361,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>같았는데 태사공(太史公)은 주(紂)에게 70만의 병력이 있었다고 하였으니, 옳은지 알 수 없다.</t>
+          <t>사나움이 이와 같았는데 태사공(太史公)은 주(紂)에게 70만의 병력이 있었다고 하였으니, 옳은지 알 수 없다.</t>
         </is>
       </c>
     </row>
@@ -10511,7 +10511,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>단지 &lt;태서(泰誓)&gt;</t>
+          <t>단지</t>
         </is>
       </c>
     </row>
@@ -10541,7 +10541,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>한 편의</t>
+          <t>&lt;태서(泰誓)&gt;</t>
         </is>
       </c>
     </row>
@@ -10571,7 +10571,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>전서(前序)에</t>
+          <t>한</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>‘십유일년(十有一年)’ 이라</t>
+          <t>편의</t>
         </is>
       </c>
     </row>
@@ -10631,7 +10631,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>하고,</t>
+          <t>전서(前序)에</t>
         </is>
       </c>
     </row>
@@ -10661,7 +10661,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>그 뒤 정경(正經)에 ‘유십유삼년(惟十有三年)’ 이라 하여 선유(先儒)들이 잘못 인식해서 드디어 군대를 사열했다는 설로 변한 것이다.</t>
+          <t>‘십유일년(十有一年)’ 이라 하고, 그 뒤 정경(正經)에 ‘유십유삼년(惟十有三年)’ 이라 하여 선유(先儒)들이 잘못 인식해서 드디어 군대를 사열했다는 설로 변한 것이다.</t>
         </is>
       </c>
     </row>
@@ -10691,7 +10691,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>선왕(先王)은 군대를</t>
+          <t>선왕(先王)은</t>
         </is>
       </c>
     </row>
@@ -10721,7 +10721,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>사열한 일이</t>
+          <t>군대를</t>
         </is>
       </c>
     </row>
@@ -10751,7 +10751,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>없었으니, 전서(前序)의</t>
+          <t>사열한</t>
         </is>
       </c>
     </row>
@@ -10781,7 +10781,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>‘일(一)’ 자가 잘못된 것이 아니라면 그 뒤 정경(正經)의 ‘삼(三)’ 자가 잘못된 것이다.</t>
+          <t>일이 없었으니, 전서(前序)의 ‘일(一)’ 자가 잘못된 것이 아니라면 그 뒤 정경(正經)의 ‘삼(三)’ 자가 잘못된 것이다.</t>
         </is>
       </c>
     </row>
@@ -10931,7 +10931,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>개보(介甫)(왕안석(王安石))는 ‘군자(君子)를</t>
+          <t>개보(介甫)(왕안석(王安石))는</t>
         </is>
       </c>
     </row>
@@ -10961,7 +10961,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>나아가게</t>
+          <t>‘군자(君子)를</t>
         </is>
       </c>
     </row>
@@ -10991,7 +10991,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>하고 소인(小人)을 물러나게 하는 것’ 이라고 여겼으니, 이는 성인(聖人)이 문득 의리(義理)를 안배한 것이 된다.</t>
+          <t>나아가게 하고 소인(小人)을 물러나게 하는 것’ 이라고 여겼으니, 이는 성인(聖人)이 문득 의리(義理)를 안배한 것이 된다.</t>
         </is>
       </c>
     </row>
@@ -11051,7 +11051,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>음양(陰陽)의 수를</t>
+          <t>음양(陰陽)의</t>
         </is>
       </c>
     </row>
@@ -11081,7 +11081,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>정한 것이니, 어찌 의리를 말한 것이겠는가.</t>
+          <t>수를 정한 것이니, 어찌 의리를 말한 것이겠는가.</t>
         </is>
       </c>
     </row>
@@ -11261,7 +11261,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>되니, 단지</t>
+          <t>되니,</t>
         </is>
       </c>
     </row>
@@ -11291,7 +11291,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>하도(河圖)의 수(數)에서 취하여 살펴보건대 육(六)을 지나면 하나의 양(陽)이 생겨나니, 팔(八)에 이르면 곧 순음(純陰)이 아니다.</t>
+          <t>단지 하도(河圖)의 수(數)에서 취하여 살펴보건대 육(六)을 지나면 하나의 양(陽)이 생겨나니, 팔(八)에 이르면 곧 순음(純陰)이 아니다.</t>
         </is>
       </c>
     </row>
@@ -11381,7 +11381,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>정의왈(正義曰)：≪이아(爾雅)≫ &lt;석수(釋水)&gt;에</t>
+          <t>정의왈(正義曰)：≪이아(爾雅)≫</t>
         </is>
       </c>
     </row>
@@ -11411,7 +11411,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>“강물이 풀에</t>
+          <t>&lt;석수(釋水)&gt;에</t>
         </is>
       </c>
     </row>
@@ -11441,7 +11441,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>닿는 곳이</t>
+          <t>“강물이</t>
         </is>
       </c>
     </row>
@@ -11471,7 +11471,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>미(湄)이다.”라고 하였으니 물과 풀이 만나는 곳을 말하니 강기슭이다.</t>
+          <t>풀에 닿는 곳이 미(湄)이다.”라고 하였으니 물과 풀이 만나는 곳을 말하니 강기슭이다.</t>
         </is>
       </c>
     </row>
@@ -11591,7 +11591,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>개의 시루가</t>
+          <t>개의</t>
         </is>
       </c>
     </row>
@@ -11621,7 +11621,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>포개진 것과</t>
+          <t>시루가</t>
         </is>
       </c>
     </row>
@@ -11651,7 +11651,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>같은 곳이 엄(隒)이다.”라고 하였으니 엄(隒)은 산기슭이고 미(湄)는 강기슭이다.</t>
+          <t>포개진 것과 같은 곳이 엄(隒)이다.”라고 하였으니 엄(隒)은 산기슭이고 미(湄)는 강기슭이다.</t>
         </is>
       </c>
     </row>
@@ -11711,7 +11711,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>거슬러 올라가</t>
+          <t>거슬러</t>
         </is>
       </c>
     </row>
@@ -11741,7 +11741,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>따르려하니 길은 험하고 오르막이더니</t>
+          <t>올라가 따르려하니 길은 험하고 오르막이더니</t>
         </is>
       </c>
     </row>
@@ -11891,7 +11891,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>어려움을 말하니</t>
+          <t>어려움을</t>
         </is>
       </c>
     </row>
@@ -11921,7 +11921,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>비탈을 오르는 것과 같은 것이다.</t>
+          <t>말하니 비탈을 오르는 것과 같은 것이다.</t>
         </is>
       </c>
     </row>
@@ -11951,7 +11951,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>제(躋)는 제(隮)로</t>
+          <t>제(躋)는</t>
         </is>
       </c>
     </row>
@@ -11981,7 +11981,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>되어 있는 본도 있다.</t>
+          <t>제(隮)로 되어 있는 본도 있다.</t>
         </is>
       </c>
     </row>
@@ -12011,7 +12011,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>물살 따라</t>
+          <t>물살</t>
         </is>
       </c>
     </row>
@@ -12041,7 +12041,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>가니 가만히 강 가운데 모래톱에 있다네</t>
+          <t>따라 가니 가만히 강 가운데 모래톱에 있다네</t>
         </is>
       </c>
     </row>
@@ -12221,7 +12221,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>&lt;석수(釋水)&gt;에 “주(洲)보다</t>
+          <t>&lt;석수(釋水)&gt;에</t>
         </is>
       </c>
     </row>
@@ -12251,7 +12251,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>작은</t>
+          <t>“주(洲)보다</t>
         </is>
       </c>
     </row>
@@ -12281,7 +12281,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>모래톱[소주(小洲)]을 저(渚)라</t>
+          <t>작은</t>
         </is>
       </c>
     </row>
@@ -12311,7 +12311,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>하고, 저(渚)보다 작은 모래톱[소저(小渚)]을 지(沚)라 하고, 지(沚)보다 작은 모래톱[소지(小沚)]을 지(坻)라고 한다.”라고 하였다. 그렇다면 지(坻)는</t>
+          <t>모래톱[소주(小洲)]을 저(渚)라 하고, 저(渚)보다 작은 모래톱[소저(小渚)]을 지(沚)라 하고, 지(沚)보다 작은 모래톱[소지(小沚)]을 지(坻)라고 한다.”라고 하였다. 그렇다면 지(坻)는</t>
         </is>
       </c>
     </row>
@@ -12341,7 +12341,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>‘소지(小沚)’인데 &lt;전(傳)에서&gt; ‘소저(小渚)’라고</t>
+          <t>‘소지(小沚)’인데</t>
         </is>
       </c>
     </row>
@@ -12371,7 +12371,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>한 것은,</t>
+          <t>&lt;전(傳)에서&gt;</t>
         </is>
       </c>
     </row>
@@ -12401,7 +12401,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>저(渚)나 지(沚)가</t>
+          <t>‘소저(小渚)’라고</t>
         </is>
       </c>
     </row>
@@ -12431,7 +12431,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>모두 물</t>
+          <t>한</t>
         </is>
       </c>
     </row>
@@ -12461,7 +12461,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>가운데</t>
+          <t>것은,</t>
         </is>
       </c>
     </row>
@@ -12491,7 +12491,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>있는 땅으로</t>
+          <t>저(渚)나</t>
         </is>
       </c>
     </row>
@@ -12521,7 +12521,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>그 크기가 다른데 ‘저(渚)’가 알기 쉽기 때문에 저(渚)를 붙여 말한 것이다.</t>
+          <t>지(沚)가 모두 물 가운데 있는 땅으로 그 크기가 다른데 ‘저(渚)’가 알기 쉽기 때문에 저(渚)를 붙여 말한 것이다.</t>
         </is>
       </c>
     </row>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>갈대 무성하니</t>
+          <t>갈대</t>
         </is>
       </c>
     </row>
@@ -12581,7 +12581,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>백로(白露) 아직 그치지 않았네</t>
+          <t>무성하니 백로(白露) 아직 그치지 않았네</t>
         </is>
       </c>
     </row>
@@ -12611,7 +12611,7 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>‘채채(采采)’는 ‘처처(萋萋)’와</t>
+          <t>‘채채(采采)’는</t>
         </is>
       </c>
     </row>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>같다.</t>
+          <t>‘처처(萋萋)’와 같다.</t>
         </is>
       </c>
     </row>
@@ -12671,7 +12671,7 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>‘미이(未已)’는 ‘미지(未止)’와</t>
+          <t>‘미이(未已)’는</t>
         </is>
       </c>
     </row>
@@ -12701,7 +12701,7 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>같다.</t>
+          <t>‘미지(未止)’와 같다.</t>
         </is>
       </c>
     </row>
@@ -12911,7 +12911,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>우(右)는 우측으로</t>
+          <t>우(右)는</t>
         </is>
       </c>
     </row>
@@ -12941,7 +12941,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>돌아서 나가는 것이다.</t>
+          <t>우측으로 돌아서 나가는 것이다.</t>
         </is>
       </c>
     </row>
@@ -13121,7 +13121,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>정의왈(正義曰)：이는 길이</t>
+          <t>정의왈(正義曰)：이는</t>
         </is>
       </c>
     </row>
@@ -13151,7 +13151,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>험난함을 말하면서</t>
+          <t>길이 험난함을 말하면서</t>
         </is>
       </c>
     </row>
@@ -13271,7 +13271,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>물살 흐르는</t>
+          <t>물살</t>
         </is>
       </c>
     </row>
@@ -13301,7 +13301,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>대로 따라가면</t>
+          <t>흐르는</t>
         </is>
       </c>
     </row>
@@ -13331,7 +13331,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>쉽게 이르는데 지금 오히려 우측으로 돌아 나가니 이는 이르기 어려운 것이다.</t>
+          <t>대로 따라가면 쉽게 이르는데 지금 오히려 우측으로 돌아 나가니 이는 이르기 어려운 것이다.</t>
         </is>
       </c>
     </row>
@@ -13361,7 +13361,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>전(箋)에 ‘우(右)는</t>
+          <t>전(箋)에</t>
         </is>
       </c>
     </row>
@@ -13391,7 +13391,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>우회함을 말한 것이다.’라고</t>
+          <t>‘우(右)는</t>
         </is>
       </c>
     </row>
@@ -13421,7 +13421,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>하였는데, 좌측으로</t>
+          <t>우회함을</t>
         </is>
       </c>
     </row>
@@ -13451,7 +13451,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>돌아 나가는 것도 역시 우회하는 것이다.</t>
+          <t>말한 것이다.’라고 하였는데, 좌측으로 돌아 나가는 것도 역시 우회하는 것이다.</t>
         </is>
       </c>
     </row>
@@ -13481,7 +13481,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>그런데 우(右)라고</t>
+          <t>그런데</t>
         </is>
       </c>
     </row>
@@ -13511,7 +13511,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>한 것은 사(涘)․지(沚)와 운(韻)을 맞추기 위한 것이다.</t>
+          <t>우(右)라고 한 것은 사(涘)․지(沚)와 운(韻)을 맞추기 위한 것이다.</t>
         </is>
       </c>
     </row>
@@ -13541,7 +13541,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>물살 따라</t>
+          <t>물살</t>
         </is>
       </c>
     </row>
@@ -13571,7 +13571,7 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>가니 가만히 물 가운데 작은 모래톱에 있네</t>
+          <t>따라 가니 가만히 물 가운데 작은 모래톱에 있네</t>
         </is>
       </c>
     </row>
@@ -13661,7 +13661,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>3장(章)이니 장(章)마다</t>
+          <t>3장(章)이니</t>
         </is>
       </c>
     </row>
@@ -13691,7 +13691,7 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>8구(句)이다.</t>
+          <t>장(章)마다 8구(句)이다.</t>
         </is>
       </c>
     </row>
